--- a/DMCH-IITD.xlsx
+++ b/DMCH-IITD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8560e7807dac39fc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B03A5FCC-0E31-4F65-BFC7-8B5009A26463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ACB39A8-BE37-4BFE-B83B-1020A590E9C8}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{B03A5FCC-0E31-4F65-BFC7-8B5009A26463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFA61AC4-53BC-41F5-A7B1-7BB035FE37F6}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{49B68CEF-1206-43AF-A1CC-270024516C35}"/>
   </bookViews>
@@ -486,6 +486,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,7 +523,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CD2853-148E-4A9E-9A11-EFA85FB6A744}">
   <dimension ref="B1:BZ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:R4"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="CB9" sqref="CB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,13 +910,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:78" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="2:78" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="2"/>
@@ -1159,280 +1159,280 @@
       </c>
     </row>
     <row r="4" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2</v>
-      </c>
-      <c r="E4" s="16">
-        <v>2</v>
-      </c>
-      <c r="F4" s="16">
-        <v>2</v>
-      </c>
-      <c r="G4" s="16">
-        <v>2</v>
-      </c>
-      <c r="H4" s="16">
-        <v>2</v>
-      </c>
-      <c r="I4" s="16">
-        <v>2</v>
-      </c>
-      <c r="J4" s="16">
-        <v>2</v>
-      </c>
-      <c r="K4" s="16">
-        <v>2</v>
-      </c>
-      <c r="L4" s="16">
-        <v>2</v>
-      </c>
-      <c r="M4" s="16">
-        <v>2</v>
-      </c>
-      <c r="N4" s="16">
-        <v>2</v>
-      </c>
-      <c r="O4" s="16">
-        <v>2</v>
-      </c>
-      <c r="P4" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>2</v>
-      </c>
-      <c r="R4" s="16">
-        <v>2</v>
-      </c>
-      <c r="S4" s="16">
-        <v>2</v>
-      </c>
-      <c r="T4" s="16">
-        <v>2</v>
-      </c>
-      <c r="U4" s="16">
-        <v>2</v>
-      </c>
-      <c r="V4" s="16">
-        <v>2</v>
-      </c>
-      <c r="W4" s="16">
-        <v>2</v>
-      </c>
-      <c r="X4" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AN4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AP4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AV4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AY4" s="16">
-        <v>2</v>
-      </c>
-      <c r="AZ4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BB4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BC4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BE4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BF4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BH4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BI4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BK4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BL4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BN4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BO4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BQ4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BR4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BT4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BU4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BW4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BX4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="16">
-        <v>2</v>
-      </c>
-      <c r="BZ4" s="16">
-        <v>2</v>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DMCH-IITD.xlsx
+++ b/DMCH-IITD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8560e7807dac39fc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="8_{B03A5FCC-0E31-4F65-BFC7-8B5009A26463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA24D60-1376-4051-BED5-70471770B5FE}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="8_{B03A5FCC-0E31-4F65-BFC7-8B5009A26463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F912D7-4CD7-4540-97EA-473978F7D173}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{49B68CEF-1206-43AF-A1CC-270024516C35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49B68CEF-1206-43AF-A1CC-270024516C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -191,89 +191,89 @@
     <t>DALDA,VANASPATI,ETC</t>
   </si>
   <si>
-    <t>RICE(RICE,RICE FLOOR, DOSA,POHA,IDLLI,MURMURA)</t>
-  </si>
-  <si>
-    <t>MAIZE(CHAPATI,CHHALI,BHUTTA,CORN COB</t>
-  </si>
-  <si>
-    <t>OATS(OATS MEAL,ROLLED</t>
-  </si>
-  <si>
-    <t>RAGI,BAJRA,JOWAR</t>
-  </si>
-  <si>
-    <t>AMARANTH(CHULAI,RAJGIRA,SEEL</t>
-  </si>
-  <si>
-    <t>OTHERS(EX. BESAN ROTI,ETC</t>
-  </si>
-  <si>
-    <t>RED,DEEP ORANGES,YELLOW FRUITS(MANGO,PAPAYA,PEACH ETC</t>
-  </si>
-  <si>
-    <t>CITRUS FRUITS(LEMON,ORANGE,GRAPEFRUITS ETC</t>
-  </si>
-  <si>
-    <t>BERRIES AND GRAPES(RASBERRY, CHERRY,STRAWBERRY,AMLA,GRAPES</t>
-  </si>
-  <si>
-    <t>OTHERS( APPLE,BANANA,CHEEKU,KIWI,ETC</t>
-  </si>
-  <si>
-    <t>GREEN(TINDA.TORI,KADU ETC</t>
-  </si>
-  <si>
-    <t>BULBS(GARLIC,OINION)</t>
-  </si>
-  <si>
-    <t>OTHERS(BRINJAL,CARROT,RADISH,CUCUMBER, TERNIP,GINGER ETC)</t>
-  </si>
-  <si>
-    <t>PULSES(LENTILS,ARHAR,TUR,GREEN GRAMS,BLACK GRAMS ETC)</t>
-  </si>
-  <si>
-    <t>LEGUMES( GREEN PEAS,CHICKPEA,RAJMAH,RONGI ETC)</t>
-  </si>
-  <si>
-    <t>DESI GHEE,BUTER,MALAI</t>
-  </si>
-  <si>
     <t>HOME MADE CURD</t>
   </si>
   <si>
     <t>COTTAGE CHEESE(PANIR)</t>
   </si>
   <si>
-    <t>KHOYA BURFI,RUBRI,LADOO,KALAKAND,GULAB JAMUN,SUNDESH,KHEER,HALWA,IMRTI, ETC</t>
-  </si>
-  <si>
     <t>FROZEN FOOD(NOVA CLASS- 1)</t>
   </si>
   <si>
-    <t>ALMOND MILK,SOY MILK,COCONUT MILK OAT MILK,TOFU</t>
-  </si>
-  <si>
-    <t>SAMOSA/KACHORI,PAKORA,MATHRI,ETC</t>
-  </si>
-  <si>
     <t>MANCHURIAN/URGER/HOT DOGS ETC</t>
   </si>
   <si>
     <t>SALTY(CHIPS/ KURKURE/COOKIES/BISCUITS)</t>
   </si>
   <si>
-    <t>DRESSINGS,MAYONNAISE,SPREADS AND MARGARINES</t>
-  </si>
-  <si>
     <t>ALMONDS,WALNUTS,GROUNDNUTS,CASHEWNUTS,FLAX_SEEDS,SUNFLOWER_SEEDS</t>
+  </si>
+  <si>
+    <t>RICE(RICE, RICE FLOOR, DOSA, POHA, IDLI, MURMURA)</t>
+  </si>
+  <si>
+    <t>AMARANTH(CHULAI, RAJGIRA, SEEL)</t>
+  </si>
+  <si>
+    <t>OTHERS(EX. BESAN ROTI, ETC)</t>
+  </si>
+  <si>
+    <t>MAIZE(CHAPATI, CHHALI, BHUTTA, CORN COB)</t>
+  </si>
+  <si>
+    <t>OATS(OATS MEAL, ROLLED OATS)</t>
+  </si>
+  <si>
+    <t>RAGI, BAJRA, JOWAR</t>
+  </si>
+  <si>
+    <t>RED, DEEP ORANGES, YELLOW FRUITS(MANGO, PAPAYA, PEACH ETC)</t>
+  </si>
+  <si>
+    <t>CITRUS FRUITS(LEMON, ORANGE, GRAPEFRUITS ETC)</t>
+  </si>
+  <si>
+    <t>BERRIES AND GRAPES(RASBERRY, CHERRY, STRAWBERRY, AMLA, GRAPES)</t>
+  </si>
+  <si>
+    <t>OTHERS(APPLE, BANANA, CHEEKU, KIWI, ETC)</t>
+  </si>
+  <si>
+    <t>GREEN(TINDA.TORI, KADU ETC)</t>
+  </si>
+  <si>
+    <t>BULBS(GARLIC, ONION)</t>
+  </si>
+  <si>
+    <t>OTHERS(BRINJAL, CARROT, RADISH, CUCUMBER, TURNIP, GINGER ETC)</t>
+  </si>
+  <si>
+    <t>PULSES(LENTILS, ARHAR, TUR, GREEN GRAMS, BLACK GRAMS ETC)</t>
+  </si>
+  <si>
+    <t>LEGUMES( GREEN PEAS, CHICKPEA, RAJMAH, RONGI ETC)</t>
+  </si>
+  <si>
+    <t>DESI GHEE, BUTER, MALAI</t>
+  </si>
+  <si>
+    <t>DRESSINGS, MAYONNAISE, SPREADS AND MARGARINES</t>
+  </si>
+  <si>
+    <t>SAMOSA/KACHORI, PAKORA, MATHRI, ETC</t>
+  </si>
+  <si>
+    <t>KHOYA BURFI, RUBRI, LADOO, KALAKAND, GULAB JAMUN, SUNDESH, KHEER, HALWA, IMRTI, ETC</t>
+  </si>
+  <si>
+    <t>ALMOND MILK, SOY MILK, COCONUT MILK, OAT MILK, TOFU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +289,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
@@ -338,13 +354,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,482 +706,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B82827-9F41-4E9B-9C5F-943F5B0869DB}">
-  <dimension ref="A1:BY2"/>
+  <dimension ref="A1:BZ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" customWidth="1"/>
+    <col min="33" max="33" width="7.5703125" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" customWidth="1"/>
+    <col min="37" max="37" width="18.7109375" customWidth="1"/>
+    <col min="38" max="38" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" customWidth="1"/>
+    <col min="44" max="44" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" customWidth="1"/>
+    <col min="47" max="47" width="13.85546875" customWidth="1"/>
+    <col min="48" max="48" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11" customWidth="1"/>
+    <col min="50" max="50" width="11.140625" customWidth="1"/>
+    <col min="51" max="51" width="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="9" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.5703125" customWidth="1"/>
+    <col min="61" max="61" width="9" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.140625" customWidth="1"/>
+    <col min="66" max="66" width="12.42578125" customWidth="1"/>
+    <col min="67" max="67" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.5703125" customWidth="1"/>
+    <col min="69" max="69" width="15.42578125" customWidth="1"/>
+    <col min="70" max="70" width="19" customWidth="1"/>
+    <col min="71" max="71" width="8" bestFit="1" customWidth="1"/>
+    <col min="72" max="76" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:78" s="3" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="BJ1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2">
-        <v>1</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BV2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:78" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1"/>
+    </row>
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
